--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DreamFactory\d3ChartPOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14481" windowHeight="4199"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14484" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
   <si>
     <t>Fortran I</t>
   </si>
@@ -285,12 +285,21 @@
   </si>
   <si>
     <t>shell langauges</t>
+  </si>
+  <si>
+    <t>VERSIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortran </t>
+  </si>
+  <si>
+    <t>ALGOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,13 +383,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>479116</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>130855</xdr:rowOff>
@@ -710,835 +719,875 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1957</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1958</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1962</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1977</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1991</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1997</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2004</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2010</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
         <v>1964</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1991</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1959</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1964</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1958</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1960</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1966</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1970</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1978</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1989</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>1986</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>1977</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>1976</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1984</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="E23" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1974</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="E24" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1980</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1995</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>2007</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>1973</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="4">
+      <c r="C29" s="4">
         <v>1966</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>1972</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>1990</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>2000</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="E32" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1983</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>74</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>1995</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>29</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>2004</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>2006</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="E36" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>2000</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>2005</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>2007</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="E39" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>1965</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>1967</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>36</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>1980</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>37</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>39</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>1986</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>38</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>1958</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>1970</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>1984</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>41</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>43</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>1988</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="E47" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>1973</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>40</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>1986</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>44</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>1990</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>45</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>47</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>1991</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="E51" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>1995</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="E52" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>1985</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>44</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>1996</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>44</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>2005</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="E55" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>1974</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>1987</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>1995</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="1970s" display="YEAR INTRODUCED"/>
+    <hyperlink ref="C1" r:id="rId1" location="1970s" display="YEAR INTRODUCED"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DreamFactory\d3ChartPOC\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>LANGUAGE</t>
   </si>
@@ -19,17 +27,6 @@
     <t>VERSIONS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>FIRST APPEARED</t>
-    </r>
-  </si>
-  <si>
     <t>DIRECT ANCESTOR(S)</t>
   </si>
   <si>
@@ -295,39 +292,29 @@
   </si>
   <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t>FIRST APPEARED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
@@ -470,68 +457,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,26 +490,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ffffc000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -581,7 +590,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -609,7 +618,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -811,7 +820,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -830,7 +839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,9 +1090,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1100,7 +1115,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1119,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,9 +1381,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1382,7 +1403,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1401,7 +1422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1431,7 +1452,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1457,7 +1478,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1483,7 +1504,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1509,7 +1530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1535,7 +1556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1587,7 +1608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1613,7 +1634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1639,7 +1660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,65 +1673,56 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:E60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85156" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85156" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85156" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85156" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85156" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85156" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.85156" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85156" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85156" style="1" customWidth="1"/>
-    <col min="24" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1731,21 +1743,21 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>6</v>
       </c>
       <c r="C2" s="5">
         <v>1957</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>8</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1766,21 +1778,21 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>8</v>
+    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>1958</v>
       </c>
-      <c r="D3" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s" s="3">
-        <v>9</v>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1801,21 +1813,21 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>10</v>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>1962</v>
       </c>
-      <c r="D4" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>11</v>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1836,21 +1848,21 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>12</v>
+    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>1977</v>
       </c>
-      <c r="D5" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>13</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1871,21 +1883,21 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>13</v>
+    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="5">
         <v>1991</v>
       </c>
-      <c r="D6" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>14</v>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1906,21 +1918,21 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>14</v>
+    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>1997</v>
       </c>
-      <c r="D7" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>15</v>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1941,21 +1953,21 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>15</v>
+    <row r="8" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>2004</v>
       </c>
-      <c r="D8" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="6">
-        <v>16</v>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1976,21 +1988,21 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>16</v>
+    <row r="9" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="5">
         <v>2010</v>
       </c>
-      <c r="D9" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s" s="8">
-        <v>7</v>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="4"/>
@@ -2011,21 +2023,21 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>17</v>
+    <row r="10" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="5">
         <v>1964</v>
       </c>
-      <c r="D10" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>18</v>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2046,21 +2058,21 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>18</v>
       </c>
       <c r="C11" s="5">
         <v>1991</v>
       </c>
-      <c r="D11" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s" s="8">
-        <v>7</v>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="4"/>
@@ -2081,21 +2093,21 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>19</v>
+    <row r="12" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>1959</v>
       </c>
-      <c r="D12" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>20</v>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2116,21 +2128,21 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>21</v>
+    <row r="13" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="5">
         <v>1964</v>
       </c>
-      <c r="D13" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s" s="8">
-        <v>7</v>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="4"/>
@@ -2151,21 +2163,21 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>24</v>
       </c>
       <c r="C14" s="5">
         <v>1958</v>
       </c>
-      <c r="D14" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s" s="11">
-        <v>25</v>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2186,21 +2198,21 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>25</v>
+    <row r="15" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="5">
         <v>1960</v>
       </c>
-      <c r="D15" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>26</v>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2221,21 +2233,21 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1">
-      <c r="A16" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>27</v>
+    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="5">
         <v>1966</v>
       </c>
-      <c r="D16" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>28</v>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2256,21 +2268,21 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1">
-      <c r="A17" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>28</v>
+    <row r="17" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="5">
         <v>1970</v>
       </c>
-      <c r="D17" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>29</v>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2291,21 +2303,21 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1">
-      <c r="A18" t="s" s="3">
+    <row r="18" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>31</v>
       </c>
       <c r="C18" s="5">
         <v>1978</v>
       </c>
-      <c r="D18" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s" s="6">
-        <v>32</v>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2326,21 +2338,21 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1">
-      <c r="A19" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>33</v>
+    <row r="19" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="5">
         <v>1989</v>
       </c>
-      <c r="D19" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s" s="8">
-        <v>7</v>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="4"/>
@@ -2361,21 +2373,21 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1">
-      <c r="A20" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s" s="3">
-        <v>34</v>
+    <row r="20" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="5">
         <v>1986</v>
       </c>
-      <c r="D20" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s" s="8">
-        <v>7</v>
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="4"/>
@@ -2396,21 +2408,21 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>35</v>
+    <row r="21" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="5">
         <v>1977</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="E21" t="s" s="11">
-        <v>37</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2431,21 +2443,21 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s" s="3">
-        <v>37</v>
+    <row r="22" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C22" s="5">
         <v>1976</v>
       </c>
-      <c r="D22" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s" s="6">
-        <v>38</v>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2466,21 +2478,21 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" ht="14.4" customHeight="1">
-      <c r="A23" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>38</v>
+    <row r="23" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="5">
         <v>1984</v>
       </c>
-      <c r="D23" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s" s="8">
-        <v>7</v>
+      <c r="D23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="4"/>
@@ -2501,21 +2513,21 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>39</v>
+    <row r="24" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C24" s="5">
         <v>1974</v>
       </c>
-      <c r="D24" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>7</v>
+      <c r="D24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
@@ -2536,21 +2548,21 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>41</v>
+    <row r="25" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C25" s="5">
         <v>1980</v>
       </c>
-      <c r="D25" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s" s="11">
-        <v>42</v>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2571,21 +2583,21 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>43</v>
+    <row r="26" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="5">
         <v>1995</v>
       </c>
-      <c r="D26" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s" s="6">
-        <v>44</v>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2606,21 +2618,21 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>44</v>
+    <row r="27" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="5">
         <v>2007</v>
       </c>
-      <c r="D27" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s" s="8">
-        <v>7</v>
+      <c r="D27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="4"/>
@@ -2641,21 +2653,21 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>45</v>
+    <row r="28" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="5">
         <v>1973</v>
       </c>
-      <c r="D28" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s" s="11">
-        <v>46</v>
+      <c r="D28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -2676,21 +2688,21 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>47</v>
+    <row r="29" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C29" s="12">
         <v>1966</v>
       </c>
-      <c r="D29" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s" s="13">
-        <v>46</v>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2711,21 +2723,21 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s" s="3">
+    <row r="30" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C30" s="5">
         <v>1972</v>
       </c>
-      <c r="D30" t="s" s="11">
+      <c r="D30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>49</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2746,21 +2758,21 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" ht="14.4" customHeight="1">
-      <c r="A31" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s" s="3">
-        <v>50</v>
+    <row r="31" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="5">
         <v>1990</v>
       </c>
-      <c r="D31" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s" s="6">
-        <v>51</v>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2781,21 +2793,21 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" ht="14.4" customHeight="1">
-      <c r="A32" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>51</v>
+    <row r="32" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C32" s="5">
         <v>2000</v>
       </c>
-      <c r="D32" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>7</v>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="4"/>
@@ -2816,21 +2828,21 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" ht="14.4" customHeight="1">
-      <c r="A33" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>52</v>
+    <row r="33" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C33" s="5">
         <v>1983</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="E33" t="s" s="11">
-        <v>54</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2851,21 +2863,21 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" ht="14.4" customHeight="1">
-      <c r="A34" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>55</v>
+    <row r="34" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C34" s="5">
         <v>1995</v>
       </c>
-      <c r="D34" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>56</v>
+      <c r="D34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2886,21 +2898,21 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" ht="14.4" customHeight="1">
-      <c r="A35" t="s" s="3">
+    <row r="35" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B35" t="s" s="3">
-        <v>56</v>
       </c>
       <c r="C35" s="5">
         <v>2004</v>
       </c>
-      <c r="D35" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s" s="6">
-        <v>57</v>
+      <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2921,21 +2933,21 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" ht="14.4" customHeight="1">
-      <c r="A36" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s" s="3">
-        <v>57</v>
+    <row r="36" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="5">
         <v>2006</v>
       </c>
-      <c r="D36" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="E36" t="s" s="8">
-        <v>7</v>
+      <c r="D36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
@@ -2956,21 +2968,21 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" ht="14.4" customHeight="1">
-      <c r="A37" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s" s="3">
-        <v>58</v>
+    <row r="37" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C37" s="5">
         <v>2000</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="D37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E37" t="s" s="11">
-        <v>60</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2991,21 +3003,21 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" ht="14.4" customHeight="1">
-      <c r="A38" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s" s="3">
-        <v>61</v>
+    <row r="38" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C38" s="5">
         <v>2005</v>
       </c>
-      <c r="D38" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E38" t="s" s="6">
-        <v>62</v>
+      <c r="D38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3026,21 +3038,21 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" ht="14.4" customHeight="1">
-      <c r="A39" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s" s="3">
-        <v>62</v>
+    <row r="39" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="5">
         <v>2007</v>
       </c>
-      <c r="D39" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>7</v>
+      <c r="D39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
@@ -3061,21 +3073,21 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" ht="14.4" customHeight="1">
-      <c r="A40" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s" s="3">
-        <v>63</v>
+    <row r="40" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C40" s="5">
         <v>1965</v>
       </c>
-      <c r="D40" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s" s="11">
-        <v>64</v>
+      <c r="D40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3096,21 +3108,21 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" ht="14.4" customHeight="1">
-      <c r="A41" t="s" s="3">
+    <row r="41" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B41" t="s" s="3">
-        <v>64</v>
       </c>
       <c r="C41" s="5">
         <v>1967</v>
       </c>
-      <c r="D41" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E41" t="s" s="3">
-        <v>65</v>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3131,21 +3143,21 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" ht="14.4" customHeight="1">
-      <c r="A42" t="s" s="14">
+    <row r="42" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B42" t="s" s="3">
-        <v>67</v>
       </c>
       <c r="C42" s="5">
         <v>1980</v>
       </c>
-      <c r="D42" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="E42" t="s" s="3">
-        <v>68</v>
+      <c r="D42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3166,21 +3178,21 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" ht="14.4" customHeight="1">
-      <c r="A43" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s" s="3">
-        <v>69</v>
+    <row r="43" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C43" s="5">
         <v>1986</v>
       </c>
-      <c r="D43" t="s" s="6">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s" s="3">
-        <v>70</v>
+      <c r="D43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3201,21 +3213,21 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" ht="14.4" customHeight="1">
-      <c r="A44" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s" s="3">
-        <v>71</v>
+    <row r="44" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C44" s="12">
         <v>1958</v>
       </c>
-      <c r="D44" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s" s="13">
-        <v>72</v>
+      <c r="D44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -3236,21 +3248,21 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" ht="14.4" customHeight="1">
-      <c r="A45" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="B45" t="s" s="3">
-        <v>73</v>
+    <row r="45" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C45" s="5">
         <v>1970</v>
       </c>
-      <c r="D45" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="E45" t="s" s="3">
-        <v>74</v>
+      <c r="D45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -3271,21 +3283,21 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="B46" t="s" s="15">
-        <v>75</v>
+    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C46" s="5">
         <v>1984</v>
       </c>
-      <c r="D46" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="E46" t="s" s="6">
-        <v>76</v>
+      <c r="D46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -3306,21 +3318,21 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" ht="14.4" customHeight="1">
-      <c r="A47" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s" s="3">
-        <v>76</v>
+    <row r="47" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C47" s="5">
         <v>1988</v>
       </c>
-      <c r="D47" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>7</v>
+      <c r="D47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="4"/>
@@ -3341,21 +3353,21 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" ht="14.4" customHeight="1">
-      <c r="A48" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s" s="3">
-        <v>77</v>
+    <row r="48" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C48" s="5">
         <v>1973</v>
       </c>
-      <c r="D48" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="E48" t="s" s="11">
-        <v>78</v>
+      <c r="D48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -3376,21 +3388,21 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" ht="14.4" customHeight="1">
-      <c r="A49" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="B49" t="s" s="3">
-        <v>79</v>
+    <row r="49" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C49" s="5">
         <v>1986</v>
       </c>
-      <c r="D49" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="E49" t="s" s="3">
-        <v>80</v>
+      <c r="D49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3411,21 +3423,21 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" ht="14.4" customHeight="1">
-      <c r="A50" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="B50" t="s" s="3">
-        <v>80</v>
+    <row r="50" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C50" s="5">
         <v>1990</v>
       </c>
-      <c r="D50" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="E50" t="s" s="6">
-        <v>81</v>
+      <c r="D50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3446,21 +3458,21 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" ht="14.4" customHeight="1">
-      <c r="A51" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="B51" t="s" s="3">
-        <v>81</v>
+    <row r="51" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C51" s="5">
         <v>1991</v>
       </c>
-      <c r="D51" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="E51" t="s" s="8">
-        <v>7</v>
+      <c r="D51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="4"/>
@@ -3481,21 +3493,21 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" ht="14.4" customHeight="1">
-      <c r="A52" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="B52" t="s" s="3">
-        <v>70</v>
+    <row r="52" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C52" s="5">
         <v>1995</v>
       </c>
-      <c r="D52" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="E52" t="s" s="8">
-        <v>7</v>
+      <c r="D52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="4"/>
@@ -3516,21 +3528,21 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" ht="14.4" customHeight="1">
-      <c r="A53" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s" s="3">
-        <v>84</v>
+    <row r="53" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C53" s="5">
         <v>1985</v>
       </c>
-      <c r="D53" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="E53" t="s" s="11">
-        <v>85</v>
+      <c r="D53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -3551,21 +3563,21 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" ht="14.4" customHeight="1">
-      <c r="A54" t="s" s="3">
+    <row r="54" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B54" t="s" s="3">
-        <v>85</v>
       </c>
       <c r="C54" s="5">
         <v>1996</v>
       </c>
-      <c r="D54" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s" s="6">
-        <v>86</v>
+      <c r="D54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -3586,21 +3598,21 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" ht="14.4" customHeight="1">
-      <c r="A55" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="B55" t="s" s="3">
-        <v>86</v>
+    <row r="55" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C55" s="5">
         <v>2005</v>
       </c>
-      <c r="D55" t="s" s="16">
-        <v>87</v>
-      </c>
-      <c r="E55" t="s" s="8">
-        <v>7</v>
+      <c r="D55" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="4"/>
@@ -3621,21 +3633,21 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" ht="14.4" customHeight="1">
-      <c r="A56" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="B56" t="s" s="3">
-        <v>88</v>
+    <row r="56" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C56" s="12">
         <v>1974</v>
       </c>
-      <c r="D56" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s" s="17">
-        <v>89</v>
+      <c r="D56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3656,21 +3668,21 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" ht="14.4" customHeight="1">
-      <c r="A57" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="B57" t="s" s="3">
-        <v>89</v>
+    <row r="57" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C57" s="5">
         <v>1987</v>
       </c>
-      <c r="D57" t="s" s="11">
+      <c r="D57" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="E57" t="s" s="6">
-        <v>91</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -3691,21 +3703,21 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" ht="14.4" customHeight="1">
-      <c r="A58" t="s" s="3">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s" s="3">
-        <v>91</v>
+    <row r="58" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C58" s="5">
         <v>1995</v>
       </c>
-      <c r="D58" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="E58" t="s" s="8">
-        <v>7</v>
+      <c r="D58" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="4"/>
@@ -3726,7 +3738,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" ht="14.4" customHeight="1">
+    <row r="59" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3751,7 +3763,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" ht="14.4" customHeight="1">
+    <row r="60" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3778,7 +3790,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
